--- a/TI/REQUISITOS e BACKLOG/Backlog.xlsx
+++ b/TI/REQUISITOS e BACKLOG/Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Bandtec\Projeto PI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Lucas\Bandtec\sprint 2\SPRINT2-SUSTABIL-PROJETO\TI\REQUISITOS e BACKLOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E853744-CB2A-486F-8718-9C6DA359FF06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0CA50B-C004-47C5-8D21-5F75FC100A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Importante</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Banco de Dados</t>
   </si>
   <si>
-    <t>Softwares Utilizados</t>
-  </si>
-  <si>
     <t>Funcionalidades</t>
   </si>
   <si>
@@ -132,6 +129,48 @@
   </si>
   <si>
     <t>Backlog Sprint 2</t>
+  </si>
+  <si>
+    <t>Área da empresa, quem somos, objetivos e problemática</t>
+  </si>
+  <si>
+    <t>O site deve possuir uma página para suporte ao usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O software deverá conter quantos gráficos o usuário quiser para melhor visualização </t>
+  </si>
+  <si>
+    <t>O software deverá ter uma funcionalidade para emitir relatórios do desempenho com base no tempo especificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponibilidade dos dados de forma contínua e consistente </t>
+  </si>
+  <si>
+    <t>Simulação de execução dos sensores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUD para manutenção das informações </t>
+  </si>
+  <si>
+    <t>Design responsivo</t>
+  </si>
+  <si>
+    <t>Caso o usuário queira cancelar o seu login, é preciso que seja confirmada o cancelamento via email</t>
+  </si>
+  <si>
+    <t>O software deve ter um aplicativo para que o usuário possa entrar via celular</t>
+  </si>
+  <si>
+    <t>O software deve conter uma página ajuda para ensinar ao usuário como mexer no programa</t>
+  </si>
+  <si>
+    <t>O software deve atualizar o Dashboard de 2 em 2  minutos</t>
+  </si>
+  <si>
+    <t>O software deve enviar email e notificação via SMS aos usuários caso os dados do sensores ultrapassem um limite estabelecido, além de um alerta na tela.</t>
+  </si>
+  <si>
+    <t>Armazenamento das informações e dados métricos na nuvem</t>
   </si>
 </sst>
 </file>
@@ -321,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -372,6 +411,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -688,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,18 +758,18 @@
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -736,20 +778,20 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
@@ -760,7 +802,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
@@ -771,7 +813,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>0</v>
@@ -782,7 +824,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -793,7 +835,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -804,7 +846,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
@@ -815,10 +857,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="17"/>
@@ -826,7 +868,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
@@ -837,7 +879,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
@@ -848,7 +890,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -859,10 +901,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="17"/>
@@ -870,7 +912,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -880,7 +922,9 @@
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
@@ -889,7 +933,9 @@
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
@@ -908,7 +954,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -917,7 +963,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1</v>
@@ -927,7 +973,9 @@
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
@@ -936,7 +984,9 @@
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
@@ -945,7 +995,9 @@
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
@@ -954,7 +1006,9 @@
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
@@ -963,7 +1017,9 @@
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
@@ -972,7 +1028,9 @@
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
@@ -981,7 +1039,9 @@
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1050,9 @@
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1061,9 @@
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1072,9 @@
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1083,9 @@
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1095,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1035,7 +1103,9 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
@@ -1044,16 +1114,20 @@
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
       <c r="B35" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="17"/>
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
@@ -1062,139 +1136,81 @@
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="3"/>
+      <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="17"/>
       <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3"/>
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="17"/>
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="17"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="17"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="17"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="17"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/TI/REQUISITOS e BACKLOG/Backlog.xlsx
+++ b/TI/REQUISITOS e BACKLOG/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Bandtec\Projeto PI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Bandtec\Projeto PI\SPRINT2-SUSTABIL-PROJETO\TI\REQUISITOS e BACKLOG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E853744-CB2A-486F-8718-9C6DA359FF06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF553569-C62D-4A53-9AB9-CE97AFAB4A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,6 +1191,7 @@
       <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
